--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.4506741868524874</t>
+    <t>3.3000000000000007</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.1869798624383242</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.5493258131475125</t>
-  </si>
-  <si>
-    <t>0.3307618713826723</t>
+    <t>-5.300000000000001</t>
+  </si>
+  <si>
+    <t>0.49</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 4.270089306035073y</t>
-  </si>
-  <si>
-    <t>2.38856819303916</t>
+    <t>-1 + 8.35480283041278y</t>
+  </si>
+  <si>
+    <t>28.659550047965368</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4716596798672763</t>
-  </si>
-  <si>
-    <t>0.8781834643203723</t>
-  </si>
-  <si>
-    <t>0.6381480438725636</t>
-  </si>
-  <si>
-    <t>-1 - 0.8505539350264535y</t>
-  </si>
-  <si>
-    <t>-1.6749648084927578</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>-1 - 0.06640525715259382y</t>
+  </si>
+  <si>
+    <t>-1.235738662891708</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9232357192894672</t>
-  </si>
-  <si>
-    <t>0.09386583076767262</t>
-  </si>
-  <si>
-    <t>0.4689135806108109</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>1.4000000000000001</t>
+  </si>
+  <si>
+    <t>0.7000000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.5493258131475126</t>
-  </si>
-  <si>
-    <t>0.7935590921365445</t>
+    <t>4.300000000000001</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.3091774006556118</t>
+    <t>-13.695270843191327</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.3054235523771306</t>
-  </si>
-  <si>
-    <t>-5.494390619567946</t>
+    <t>-7.426405257152595</t>
+  </si>
+  <si>
+    <t>-37.864483522400015</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.1494460649735465</v>
+        <v>0.9335947428474062</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.3000000000000007</t>
+    <t>-2.1 + x</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.300000000000001</t>
-  </si>
-  <si>
-    <t>0.49</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2.1 - x</t>
+  </si>
+  <si>
+    <t>-3.1</t>
+  </si>
+  <si>
+    <t>0.27</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 8.35480283041278y</t>
-  </si>
-  <si>
-    <t>28.659550047965368</t>
+    <t>-10.025316455696203 + 3.0379746835443036y</t>
+  </si>
+  <si>
+    <t>9.025316455696203</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>7.800000000000001</t>
-  </si>
-  <si>
-    <t>-1 - 0.06640525715259382y</t>
-  </si>
-  <si>
-    <t>-1.235738662891708</t>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>7.199999999999999</t>
+  </si>
+  <si>
+    <t>-4.521000000000001 + 1.37y</t>
+  </si>
+  <si>
+    <t>3.521000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>1.4000000000000001</t>
-  </si>
-  <si>
-    <t>0.7000000000000001</t>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.4</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.300000000000001</t>
-  </si>
-  <si>
-    <t>3.55</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-13.695270843191327</t>
+    <t>-10.362554430379749</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-7.426405257152595</t>
-  </si>
-  <si>
-    <t>-37.864483522400015</t>
+    <t>-1.7999999999999998</t>
+  </si>
+  <si>
+    <t>-42.006303797468355</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9335947428474062</v>
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-2.1 + x</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>-0.9 + x</t>
+  </si>
+  <si>
+    <t>-0.09999999999999998</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>2.1 - x</t>
-  </si>
-  <si>
-    <t>-3.1</t>
-  </si>
-  <si>
-    <t>0.27</t>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.8999999999999999 - x</t>
+  </si>
+  <si>
+    <t>-1.9</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,67 +87,67 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-10.025316455696203 + 3.0379746835443036y</t>
-  </si>
-  <si>
-    <t>9.025316455696203</t>
+    <t>-24.666666666666668 + 9.135802469135802y</t>
+  </si>
+  <si>
+    <t>23.666666666666668</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>7.199999999999999</t>
-  </si>
-  <si>
-    <t>-4.521000000000001 + 1.37y</t>
-  </si>
-  <si>
-    <t>3.521000000000001</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.66</t>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-10.362554430379749</t>
+    <t>-9.039382716049383</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.7999999999999998</t>
-  </si>
-  <si>
-    <t>-42.006303797468355</t>
+    <t>-0.8899999999999999</t>
+  </si>
+  <si>
+    <t>-17.082641975308643</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.37</v>
+        <v>0.81</v>
       </c>
     </row>
   </sheetData>
